--- a/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_OptThreshold_heu_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_OptThreshold_heu_comb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
@@ -643,20 +643,23 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tenfold_Avg!$C$1</c:f>
+              <c:f>Tenfold_Avg!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AUCROC</c:v>
+                  <c:v>MCC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -855,2785 +858,6 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Avg!$C$2:$C$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.73618586033950695</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.794008608217592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.807655164930556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.81499234423225397</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81676914544753099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81608193479938396</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82240638261959897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82452558352623495</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.82838632089120401</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.83271574797453796</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83312596450617304</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83578016493055696</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.83665876977237696</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83947874469521699</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.84021026234567997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84239245756172998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.84089687017746895</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.84245545187114201</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.84224295910493796</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.84360411844135796</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.84429253472222299</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.84374246479552395</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.84622636959876596</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.84853696469907502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.84928958092206797</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.84933509355709802</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.84985170717592595</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.85347704475308706</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.85273799189814903</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.85594015239197596</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.85579517505786895</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.85915768470293197</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.85949978298611196</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.86113431954089503</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.86097909432870201</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.86143482349537104</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.86255907600308701</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.86032533998842498</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.86038140190972301</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.86068190586419802</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.86226218894675799</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.861025209780092</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.86320348668981595</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.86065176504629703</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.86040732301311695</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.86068582417052497</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.86225465374228505</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.86003749517746897</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.86369056230709995</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.859862075617285</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.86065266927083295</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.86160572193286999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.86448115596064801</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.86136791087963005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.86070873119212998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.86148214457947503</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.86167775848765404</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.86066050588348697</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.86085220148533903</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.86089922116126405</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AUCPR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$D$2:$D$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.73800057975556099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79390170774421498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.803485527605869</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80791611875018199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81165097790937502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80938696230843499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81303629417954004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81428686591754595</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81878202202088901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.823393162672164</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82426725084213803</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.82743245195385895</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.82714680040784305</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.82985435678962205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.83150143429462597</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83356614987620803</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.83225951098412398</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.83378917953573395</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.832592359808348</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.83404423059454302</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.83517940911129895</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.83386065674283105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.83782188423956505</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.83947070179120797</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.83932081211858101</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.84105749529463802</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.84017707695721799</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.84416356159258599</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.84393313724889296</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.84587662509852601</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.84465294538575797</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.84418994337275999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.84813884824832297</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.849317829496817</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.84807600338537004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.84979563196353602</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.84914475793715405</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.84577288028958697</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.84860782892700404</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.85022541661685402</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.84809933660660597</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.84644740880487501</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.847899942948663</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.84523397984834203</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.84449431679881803</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.84596775132880597</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.846499631550512</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.84431898195023203</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.84867078281037001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.84601632506216895</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.84670057241089602</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.84781031374937998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.851429707799366</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.84835268195236102</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.84765221531080204</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.84955039910171304</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.85079190436012997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.84985158328506705</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.84863472860254197</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.84919822004681</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$E$2:$E$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.68107638888888899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71649305555555498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73263888888888895</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73940972222222201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74114583333333295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74010416666666701</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74652777777777801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75052083333333297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75729166666666703</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75868055555555602</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75572916666666701</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75972222222222197</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.76059027777777799</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.76197916666666698</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.76371527777777803</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.76597222222222205</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76458333333333395</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76579861111111103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.76076388888888902</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.76666666666666705</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.76684027777777797</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.76718750000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.77239583333333295</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.76927083333333302</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.77187499999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.77395833333333297</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.77395833333333297</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.77951388888888895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.77760416666666599</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.77968749999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.77864583333333304</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.78281250000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.78159722222222205</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.78802083333333295</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.78645833333333304</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78663194444444395</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78854166666666703</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.78489583333333302</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.78177083333333297</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.78437500000000004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.78524305555555596</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78489583333333302</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.78541666666666698</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.78281250000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.78315972222222197</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.78506944444444504</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.78350694444444402</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78506944444444504</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78871527777777795</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.78333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.78020833333333295</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.78454861111111096</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.78802083333333395</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.78489583333333302</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.78628472222222201</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.78420138888888902</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.78211805555555602</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.78177083333333397</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.78472222222222199</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.78159722222222205</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$F$2:$F$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.71597222222222201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78715277777777803</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81458333333333299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78020833333333295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76284722222222201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.76909722222222199</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75104166666666705</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75902777777777797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.73645833333333299</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.76527777777777795</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.77777777777777801</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.72326388888888904</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.81284722222222205</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83472222222222203</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.77395833333333297</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.796180555555555</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.78541666666666698</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.77812499999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.81145833333333295</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.74340277777777797</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.77256944444444398</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.77152777777777803</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.80868055555555596</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.76875000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78263888888888899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.80659722222222197</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.79826388888888899</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.82777777777777795</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.81770833333333304</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.77604166666666696</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.79791666666666705</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.80868055555555496</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.81840277777777803</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.79062500000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.81527777777777799</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.844444444444444</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.83402777777777803</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.77569444444444402</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.82326388888888902</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.81006944444444395</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.86493055555555498</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.83020833333333299</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.81701388888888904</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.79479166666666701</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.80243055555555598</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.796180555555555</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.81944444444444398</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.77048611111111098</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.75138888888888899</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.79861111111111105</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.79930555555555605</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.781944444444444</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.79409722222222201</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.78993055555555602</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.83194444444444504</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.796180555555555</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.780555555555555</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.79548611111111101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$G$2:$G$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.64618055555555598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78298611111111105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67812499999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65381944444444495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66770833333333302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73020833333333302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.73194444444444495</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.76354166666666701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75833333333333397</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75416666666666698</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.74340277777777797</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.80069444444444404</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71458333333333302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.69722222222222197</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75520833333333304</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.73541666666666705</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.73611111111111105</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.75520833333333304</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.72222222222222199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.79097222222222197</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.77222222222222203</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.76701388888888899</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.735069444444444</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.77916666666666701</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.76527777777777795</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.75243055555555605</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.75694444444444497</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.73159722222222201</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.73958333333333304</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.78958333333333297</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.76527777777777795</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.76736111111111105</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.75451388888888904</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78263888888888899</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.76180555555555596</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.72534722222222203</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.72951388888888902</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.79305555555555596</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.74722222222222201</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.75972222222222197</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.70590277777777799</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.73541666666666705</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.749305555555556</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.77534722222222197</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.76458333333333295</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.77395833333333297</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.75798611111111103</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.796180555555556</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.80902777777777801</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.77048611111111098</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.77673611111111096</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.78784722222222203</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.77847222222222201</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.77847222222222201</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.73229166666666701</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.76736111111111105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.78888888888888897</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.76770833333333299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$H$2:$H$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.67176510223632302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75966951497003798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71035044835469496</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70613144875166101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.71110104150224596</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.728322077408871</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74171643630427098</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.74324899424012103</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.76113449941175204</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76052562764322396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.76847608963269498</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.76219260850412995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.75591474997342101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.78586478885746502</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74094980280941802</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.73416557216496303</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76087418238787097</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.752160602206285</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75346974398898203</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.76467026155648299</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.74688213667500003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.78384324436805597</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.77571402372236897</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.77541862663046801</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.75706784032923702</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.77771994845089498</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.770832268546499</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.76797988871920397</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.76997559166676</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.75567939087848901</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.75994768531435597</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.79247652912228095</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.77825977241460798</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.77806336090957096</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.771887742877571</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78678652316866204</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.77578043889332904</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.75534803016074104</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.75704965450460604</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.79656950580485397</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.76741206994987898</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.77478059034727398</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.74727485919187397</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.76167386671060799</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.76854168534976197</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.78189380712323098</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.780356696383675</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78392711364309398</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.77661009388872104</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.79472760250404395</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.80579671007148101</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.78018208117275301</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.78505956942424804</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.786928601804738</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.78383661196958199</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.78760203213572599</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.75880386839172498</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.77533962322621797</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.79271449524458404</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.779619918238036</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$I$2:$I$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.69122050578050598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69381060516866899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74643783296794497</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75908336147042699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75878548159886405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74844305906840403</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.749412699830177</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75478866611233097</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75560750687927203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75856131857438203</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75040253446719996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75988996430201805</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.76381256189628199</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.751997930219371</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.77466029896807498</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.78098072320075096</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76639102377616597</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.77243154305240302</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.76588337441168297</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.76852269677822804</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.77655219301001799</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.76083230426587301</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.77182351062948096</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.76814713954653002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.77938239292709799</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.77262439186932097</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.77550233192350704</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.78476458315539399</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.78160964437745495</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78973272846557696</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.78672923397279904</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.78024995788491103</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.78410523698420398</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.79221192596216705</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.79233402191418201</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78684959135173504</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.79374150588362102</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.79690711319490004</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.79245115094130603</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.78084209072909005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.79252482043695704</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78922358807603898</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.80122669672857505</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.79201371760666395</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.79000307814400805</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.78652238486222403</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.78636826043575403</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78634924495855596</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.79424805358643602</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.77953980435415504</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.77167073950906895</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.78675277913581498</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.78961747722520004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.78422901068752204</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.78750893648906295</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.78390894638293196</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.79220524683968796</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.78454349994509698</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.78272657486486397</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.78354700889009998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Tenfold_Avg!$J$2:$J$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3823,31 +1047,36 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="98027776"/>
-        <c:axId val="98033664"/>
+        <c:axId val="72729344"/>
+        <c:axId val="72730880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98027776"/>
+        <c:axId val="72729344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98033664"/>
+        <c:crossAx val="72730880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98033664"/>
+        <c:axId val="72730880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.6000000000000002"/>
+          <c:min val="0.3000000000000001"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98027776"/>
+        <c:crossAx val="72729344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3860,7 +1089,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7050,23 +4279,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="95865088"/>
-        <c:axId val="95446912"/>
+        <c:axId val="72883200"/>
+        <c:axId val="72909568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95865088"/>
+        <c:axId val="72883200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95446912"/>
+        <c:crossAx val="72909568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95446912"/>
+        <c:axId val="72909568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7074,20 +4303,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95865088"/>
+        <c:crossAx val="72883200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7097,16 +4325,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7507,7 +4735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9726,7 +6954,7 @@
     </sortState>
   </autoFilter>
   <sortState ref="A2:L61">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_OptThreshold_heu_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_OptThreshold_heu_comb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
@@ -1047,11 +1047,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72729344"/>
-        <c:axId val="72730880"/>
+        <c:axId val="49101056"/>
+        <c:axId val="49111040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72729344"/>
+        <c:axId val="49101056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1060,23 +1060,23 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72730880"/>
+        <c:crossAx val="49111040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72730880"/>
+        <c:axId val="49111040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.6000000000000002"/>
-          <c:min val="0.3000000000000001"/>
+          <c:max val="0.60000000000000031"/>
+          <c:min val="0.30000000000000016"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72729344"/>
+        <c:crossAx val="49101056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1089,7 +1089,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4279,23 +4279,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72883200"/>
-        <c:axId val="72909568"/>
+        <c:axId val="49436160"/>
+        <c:axId val="49437696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72883200"/>
+        <c:axId val="49436160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72909568"/>
+        <c:crossAx val="49437696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72909568"/>
+        <c:axId val="49437696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,7 +4303,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72883200"/>
+        <c:crossAx val="49436160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4315,7 +4315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4735,7 +4735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6954,7 +6954,7 @@
     </sortState>
   </autoFilter>
   <sortState ref="A2:L61">
-    <sortCondition ref="B2"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8933,8 +8933,8 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
